--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -1,200 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9525" yWindow="2325" windowWidth="18810" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="params" sheetId="2" r:id="rId1"/>
-    <sheet name="thermal_hull" sheetId="1" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="params" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thermal_hull" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" calcMode="manual" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Notice the variable name without whitespace, so it can be used in python as a variable name as well</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Massivbau ~ 200
-Mischbau ~130
-Leichtbau ~60</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Spezifisch wirksame wärmekapazität des Gebäudes</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Bauteil</t>
-  </si>
-  <si>
-    <t>U-Wert</t>
-  </si>
-  <si>
-    <t>Fläche</t>
-  </si>
-  <si>
-    <t>Außenwand (brutto)</t>
-  </si>
-  <si>
-    <t>Dach</t>
-  </si>
-  <si>
-    <t>Fußboden</t>
-  </si>
-  <si>
-    <t>Temperatur-Korrekturfaktor</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>m² BGF</t>
-  </si>
-  <si>
-    <t>m²</t>
-  </si>
-  <si>
-    <t>gross_floor_area</t>
-  </si>
-  <si>
-    <t>plot_size</t>
-  </si>
-  <si>
-    <t>effective_heat_capacity</t>
-  </si>
-  <si>
-    <t>Wh/m²/K</t>
-  </si>
-  <si>
-    <t>m Netto</t>
-  </si>
-  <si>
-    <t>net_storey_height</t>
-  </si>
-  <si>
-    <t>differential_cost</t>
-  </si>
-  <si>
-    <t>€/m²BGF</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -213,22 +47,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Autor:
+Notice the variable name without whitespace, so it can be used in python as a variable name as well</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Autor:
+Massivbau ~ 200
+Mischbau ~130
+Leichtbau ~60</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <t>Autor:
+Spezifisch wirksame wärmekapazität des Gebäudes</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,160 +416,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col width="22.140625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <f>360*4</f>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gross_floor_area</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1440</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>m² BGF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>plot_size</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>effective_heat_capacity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wh/m²/K</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>net_storey_height</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2.8</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>m Netto</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>differential_cost</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€/m²BGF</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col width="19.42578125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Bauteil</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fläche</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>U-Wert</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Temperatur-Korrekturfaktor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wand</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1075.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>360</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>360</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fenster</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <f>(30+12)*2*3.2*4</f>
-        <v>1075.2</v>
-      </c>
-      <c r="C2">
-        <v>0.3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <f>30*12</f>
-        <v>360</v>
-      </c>
-      <c r="C3">
-        <v>0.15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f>B3</f>
-        <v>360</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1075.2</v>
+        <v>1400</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         <v>1400</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
         <v>800</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9525" yWindow="2325" windowWidth="18810" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="params" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thermal_hull" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" calcMode="manual" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcMode="manual" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -421,10 +421,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -516,11 +516,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>€/m²BGF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WRG</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -536,10 +551,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -579,58 +594,69 @@
         <v>1400</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Boden</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>800</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.15</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Dach</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fenster</t>
-        </is>
+      <c r="A5" t="n">
+        <v>800</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fenster</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -551,10 +551,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -601,62 +601,51 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Boden</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>800</v>
+      </c>
       <c r="C3" t="n">
-        <v>800</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dach</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>800</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fenster</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fenster</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>1400</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>800</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>1400</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>800</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>1400</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>800</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>

--- a/EMS-Backend/data/building.xlsx
+++ b/EMS-Backend/data/building.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
